--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,94 @@
         <v>0.131262557731759</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B-180</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>150</v>
+      </c>
+      <c r="D28" t="n">
+        <v>500</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22.13000049848962</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02361014068048917</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B-21</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>300</v>
+      </c>
+      <c r="D29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E29" t="n">
+        <v>54.93994924846283</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0773918464371377</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B-30</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>300</v>
+      </c>
+      <c r="D30" t="n">
+        <v>500</v>
+      </c>
+      <c r="E30" t="n">
+        <v>53.94742872898009</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06498514021797064</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B-39</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>300</v>
+      </c>
+      <c r="D31" t="n">
+        <v>500</v>
+      </c>
+      <c r="E31" t="n">
+        <v>55.82801208022318</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02261895375784206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
